--- a/NCAA_Games.xlsx
+++ b/NCAA_Games.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobby\Desktop\PythonProjects\DraftPredictions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobby\Desktop\PythonProjects\DraftPredictions\bracket-predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FE86F8-D02C-47CD-A808-7C2717AF09FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3AF7D3-B5F0-4FF0-A3E4-B37943EBDA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="1800" windowWidth="20070" windowHeight="14610" xr2:uid="{064EBF74-BDD8-4B7E-BC44-E231380FA68E}"/>
+    <workbookView xWindow="5010" yWindow="195" windowWidth="17205" windowHeight="14610" xr2:uid="{064EBF74-BDD8-4B7E-BC44-E231380FA68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$65</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Uconn</t>
   </si>
@@ -117,9 +120,6 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>Long Beach</t>
-  </si>
-  <si>
     <t>Houston</t>
   </si>
   <si>
@@ -165,6 +165,9 @@
     <t>Western Kentucky</t>
   </si>
   <si>
+    <t>Purdue</t>
+  </si>
+  <si>
     <t>Utah St.</t>
   </si>
   <si>
@@ -217,6 +220,12 @@
   </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>Long Beach St.</t>
+  </si>
+  <si>
+    <t>Num</t>
   </si>
 </sst>
 </file>
@@ -568,338 +577,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6D37B5-B071-4550-981F-76FDAC92BC95}">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:C65" xr:uid="{3B6D37B5-B071-4550-981F-76FDAC92BC95}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NCAA_Games.xlsx
+++ b/NCAA_Games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobby\Desktop\PythonProjects\DraftPredictions\bracket-predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3AF7D3-B5F0-4FF0-A3E4-B37943EBDA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3EB04D-DD9A-4647-AD32-28A940565302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="195" windowWidth="17205" windowHeight="14610" xr2:uid="{064EBF74-BDD8-4B7E-BC44-E231380FA68E}"/>
+    <workbookView xWindow="13185" yWindow="-18540" windowWidth="17880" windowHeight="16455" xr2:uid="{064EBF74-BDD8-4B7E-BC44-E231380FA68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,15 +210,6 @@
     <t>Colorado</t>
   </si>
   <si>
-    <t>Grambling</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -226,6 +217,15 @@
   </si>
   <si>
     <t>Num</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Colorado St.</t>
+  </si>
+  <si>
+    <t>Grambling St.</t>
   </si>
 </sst>
 </file>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6D37B5-B071-4550-981F-76FDAC92BC95}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,10 +590,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
